--- a/ProductionPlan.xlsx
+++ b/ProductionPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Automation Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A4D69E-8EA5-4F60-8476-34354815D124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18495448-148C-4F78-BBB8-768D5AFA060D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{22CA2852-1F6A-453C-A816-12810A9DA52A}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{22CA2852-1F6A-453C-A816-12810A9DA52A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,23 +438,23 @@
       </c>
       <c r="B1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45946</v>
+        <v>45947</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">B1+1</f>
-        <v>45947</v>
+        <v>45948</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:F1" ca="1" si="0">C1+1</f>
-        <v>45948</v>
+        <v>45949</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45949</v>
+        <v>45950</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45950</v>
+        <v>45951</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/ProductionPlan.xlsx
+++ b/ProductionPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Automation Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18495448-148C-4F78-BBB8-768D5AFA060D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DCA35C-55FA-4404-BC9E-125337B4A8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{22CA2852-1F6A-453C-A816-12810A9DA52A}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{22CA2852-1F6A-453C-A816-12810A9DA52A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,41 +423,41 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <f ca="1">TODAY()</f>
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="C1" s="1">
         <f ca="1">B1+1</f>
-        <v>45948</v>
+        <v>45952</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" ref="D1:F1" ca="1" si="0">C1+1</f>
-        <v>45949</v>
+        <v>45953</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45950</v>
+        <v>45954</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45951</v>
+        <v>45955</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -465,7 +465,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -476,7 +476,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>1600</v>
       </c>
